--- a/data/Tianjin 135 cases_revised.xlsx
+++ b/data/Tianjin 135 cases_revised.xlsx
@@ -3,20 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B82DEB-4C04-41FC-8296-42457EF1B5EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E461F6D-E616-4E76-A297-28DDBA86E4BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="338" windowWidth="17505" windowHeight="9127" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
     <sheet name="accumulation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="455">
   <si>
     <t>case_id</t>
   </si>
@@ -1207,9 +1217,6 @@
     <t>period of travelling in Hubei</t>
   </si>
   <si>
-    <t>Case 17's smypton days, quarantine  time is Jan 26</t>
-  </si>
-  <si>
     <r>
       <t>i</t>
     </r>
@@ -1225,13 +1232,7 @@
     </r>
   </si>
   <si>
-    <t>Symptom of Case 20.</t>
-  </si>
-  <si>
     <t>period of contacting a busines partner with fever in BJ</t>
-  </si>
-  <si>
-    <t>symptom oneset of case 32</t>
   </si>
   <si>
     <t>period of visiting the hometown in Zhejiang during which meeting a partient</t>
@@ -1488,6 +1489,15 @@
   </si>
   <si>
     <t>symtom-onset of hershelf</t>
+  </si>
+  <si>
+    <t>Confirmation of Case 20.</t>
+  </si>
+  <si>
+    <t>Case 17's confirmation, quarantine  time is Jan 26</t>
+  </si>
+  <si>
+    <t>confirmation of case 32</t>
   </si>
 </sst>
 </file>
@@ -2017,26 +2027,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="M135" sqref="M135"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A68" activeCellId="1" sqref="A127:XFD127 A68:XFD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.06640625" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="7.9296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.9296875" customWidth="1"/>
-    <col min="7" max="7" width="12.46484375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="11.9296875" customWidth="1"/>
-    <col min="10" max="10" width="8.19921875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.06640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="23.1328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="23.08984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5">
+    <row r="1" spans="1:13" ht="29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2087,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.5">
+    <row r="2" spans="1:13" ht="29">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2115,7 +2125,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.5">
+    <row r="3" spans="1:13" ht="29">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2214,7 +2224,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5">
+    <row r="6" spans="1:13" ht="29">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2278,7 +2288,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.5">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2310,7 +2320,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="42.75">
+    <row r="9" spans="1:13" ht="29">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2345,7 +2355,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.5">
+    <row r="10" spans="1:13" ht="43.5">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2377,7 +2387,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="29">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2412,7 +2422,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="42.75">
+    <row r="12" spans="1:13" ht="43.5">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2470,7 +2480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="42.75">
+    <row r="14" spans="1:13" ht="43.5">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2593,7 +2603,7 @@
       </c>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:13" ht="28.5">
+    <row r="18" spans="1:13" ht="29">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2623,7 +2633,7 @@
       </c>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:13" ht="28.5">
+    <row r="19" spans="1:13" ht="29">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2658,7 +2668,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="28.5">
+    <row r="20" spans="1:13" ht="29">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2696,7 +2706,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="28.5">
+    <row r="21" spans="1:13" ht="29">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2731,7 +2741,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="28.5">
+    <row r="22" spans="1:13" ht="29">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -2766,7 +2776,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="57">
+    <row r="23" spans="1:13" ht="58">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2798,7 +2808,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28.5">
+    <row r="24" spans="1:13" ht="29">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2830,7 +2840,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="28.5">
+    <row r="25" spans="1:13" ht="29">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2862,7 +2872,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="28.5">
+    <row r="26" spans="1:13" ht="29">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2926,7 +2936,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="42.75">
+    <row r="28" spans="1:13" ht="43.5">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2961,7 +2971,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="28.5">
+    <row r="29" spans="1:13" ht="29">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3028,7 +3038,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="57">
+    <row r="31" spans="1:13" ht="58">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -3063,7 +3073,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="28.5">
+    <row r="32" spans="1:13" ht="29">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3130,7 +3140,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.5">
+    <row r="34" spans="1:12" ht="29">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3153,16 +3163,16 @@
         <v>259</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s">
         <v>57</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="28.5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="29">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3194,10 +3204,10 @@
         <v>11</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="28.5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="29">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -3226,10 +3236,10 @@
         <v>57</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="28.5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="29">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -3252,16 +3262,16 @@
         <v>260</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J37" t="s">
         <v>57</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="42.75">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="43.5">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -3293,10 +3303,10 @@
         <v>57</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="28.5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="29">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -3319,16 +3329,16 @@
         <v>263</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="J39" t="s">
         <v>57</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="57">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="58">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -3360,10 +3370,10 @@
         <v>57</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="57">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="58">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -3395,10 +3405,10 @@
         <v>57</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="57">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="58">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -3430,10 +3440,10 @@
         <v>57</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="28.5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="29">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -3462,10 +3472,10 @@
         <v>265</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="42.75">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="43.5">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -3500,7 +3510,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28.5">
+    <row r="45" spans="1:12" ht="29">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3535,7 +3545,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="28.5">
+    <row r="46" spans="1:12" ht="29">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -3564,10 +3574,10 @@
         <v>57</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="28.5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="29">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -3597,10 +3607,10 @@
         <v>57</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="28.5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="29">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -3632,7 +3642,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="57">
+    <row r="49" spans="1:12" ht="58">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -3664,7 +3674,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="28.5">
+    <row r="50" spans="1:12" ht="29">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -3696,10 +3706,10 @@
         <v>57</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="28.5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="29">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -3734,10 +3744,10 @@
         <v>121</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="71.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="72.5">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -3769,10 +3779,10 @@
         <v>57</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="42.75">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="43.5">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -3807,7 +3817,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="28.5">
+    <row r="54" spans="1:12" ht="29">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -3827,7 +3837,7 @@
         <v>95</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
@@ -3836,10 +3846,10 @@
         <v>57</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="28.5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="29">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -3868,7 +3878,7 @@
         <v>57</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3900,10 +3910,10 @@
         <v>57</v>
       </c>
       <c r="L56" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="28.5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="29">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -3935,10 +3945,10 @@
         <v>57</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="28.5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="29">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -3970,7 +3980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.5">
+    <row r="59" spans="1:12" ht="29">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -4002,7 +4012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="42.75">
+    <row r="60" spans="1:12" ht="58">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -4022,19 +4032,19 @@
         <v>95</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J60" t="s">
         <v>57</v>
       </c>
       <c r="L60" s="24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="42.75">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="43.5">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -4063,10 +4073,10 @@
         <v>57</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="28.5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="29">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -4095,7 +4105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.5">
+    <row r="63" spans="1:12" ht="43.5">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -4115,7 +4125,7 @@
         <v>95</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>61</v>
@@ -4124,7 +4134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42.75">
+    <row r="64" spans="1:12" ht="58">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -4176,7 +4186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42.75">
+    <row r="66" spans="1:12" ht="43.5">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -4208,10 +4218,10 @@
         <v>57</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="71.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="72.5">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -4243,7 +4253,7 @@
         <v>57</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4278,10 +4288,10 @@
         <v>57</v>
       </c>
       <c r="L68" s="20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="28.5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="29">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -4316,10 +4326,10 @@
         <v>176</v>
       </c>
       <c r="L69" s="20" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="28.5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="29">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -4345,7 +4355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="57">
+    <row r="71" spans="1:12" ht="58">
       <c r="A71" t="s">
         <v>125</v>
       </c>
@@ -4371,7 +4381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28.5">
+    <row r="72" spans="1:12" ht="29">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -4403,10 +4413,10 @@
         <v>57</v>
       </c>
       <c r="L72" s="24" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="42.75">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="43.5">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -4435,10 +4445,10 @@
         <v>57</v>
       </c>
       <c r="L73" s="24" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="57">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="58">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -4470,10 +4480,10 @@
         <v>57</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="28.5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="29">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -4505,10 +4515,10 @@
         <v>57</v>
       </c>
       <c r="L75" s="24" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="28.5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="43.5">
       <c r="A76" t="s">
         <v>135</v>
       </c>
@@ -4528,7 +4538,7 @@
         <v>128</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H76" t="s">
         <v>31</v>
@@ -4540,10 +4550,10 @@
         <v>57</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="42.75">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="43.5">
       <c r="A77" t="s">
         <v>136</v>
       </c>
@@ -4572,10 +4582,10 @@
         <v>90</v>
       </c>
       <c r="L77" s="24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="42.75">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="43.5">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -4595,13 +4605,13 @@
         <v>128</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J78" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28.5">
+    <row r="79" spans="1:12" ht="29">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -4633,10 +4643,10 @@
         <v>57</v>
       </c>
       <c r="L79" s="20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="28.5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="29">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -4668,10 +4678,10 @@
         <v>57</v>
       </c>
       <c r="L80" s="20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="42.75">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="43.5">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -4703,7 +4713,7 @@
         <v>57</v>
       </c>
       <c r="L81" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4732,7 +4742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.5">
+    <row r="83" spans="1:12" ht="43.5">
       <c r="A83" t="s">
         <v>146</v>
       </c>
@@ -4758,10 +4768,10 @@
         <v>57</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="57">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="58">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -4781,13 +4791,13 @@
         <v>147</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J84" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="42.75">
+    <row r="85" spans="1:12" ht="43.5">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -4807,13 +4817,13 @@
         <v>147</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J85" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="42.75">
+    <row r="86" spans="1:12" ht="43.5">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -4833,13 +4843,13 @@
         <v>147</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J86" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="42.75">
+    <row r="87" spans="1:12" ht="43.5">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -4859,13 +4869,13 @@
         <v>147</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J87" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="42.75">
+    <row r="88" spans="1:12" ht="43.5">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -4897,10 +4907,10 @@
         <v>57</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="71.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="87">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -4920,13 +4930,13 @@
         <v>147</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="42.75">
+    <row r="90" spans="1:12" ht="43.5">
       <c r="A90" t="s">
         <v>154</v>
       </c>
@@ -4946,7 +4956,7 @@
         <v>155</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I90" t="s">
         <v>18</v>
@@ -4955,10 +4965,10 @@
         <v>57</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="28.5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="43.5">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -4984,10 +4994,10 @@
         <v>57</v>
       </c>
       <c r="L91" s="24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="42.75">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="43.5">
       <c r="A92" t="s">
         <v>157</v>
       </c>
@@ -5007,13 +5017,13 @@
         <v>155</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J92" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="57">
+    <row r="93" spans="1:12" ht="58">
       <c r="A93" t="s">
         <v>158</v>
       </c>
@@ -5045,7 +5055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="28.5">
+    <row r="94" spans="1:12" ht="43.5">
       <c r="A94" t="s">
         <v>159</v>
       </c>
@@ -5071,10 +5081,10 @@
         <v>57</v>
       </c>
       <c r="L94" s="20" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="28.5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="29">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -5094,13 +5104,13 @@
         <v>145</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J95" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28.5">
+    <row r="96" spans="1:12" ht="29">
       <c r="A96" t="s">
         <v>161</v>
       </c>
@@ -5126,10 +5136,10 @@
         <v>57</v>
       </c>
       <c r="L96" s="20" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="42.75">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="43.5">
       <c r="A97" t="s">
         <v>162</v>
       </c>
@@ -5149,13 +5159,13 @@
         <v>145</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J97" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="57">
+    <row r="98" spans="1:12" ht="58">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -5175,13 +5185,13 @@
         <v>145</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J98" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="42.75">
+    <row r="99" spans="1:12" ht="43.5">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -5201,13 +5211,13 @@
         <v>145</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J99" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="57">
+    <row r="100" spans="1:12" ht="72.5">
       <c r="A100" t="s">
         <v>165</v>
       </c>
@@ -5227,7 +5237,7 @@
         <v>145</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H100" t="s">
         <v>31</v>
@@ -5315,7 +5325,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.5">
+    <row r="104" spans="1:12" ht="29">
       <c r="A104" t="s">
         <v>170</v>
       </c>
@@ -5335,7 +5345,7 @@
         <v>168</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H104" t="s">
         <v>22</v>
@@ -5347,10 +5357,10 @@
         <v>57</v>
       </c>
       <c r="L104" s="24" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="28.5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="29">
       <c r="A105" t="s">
         <v>171</v>
       </c>
@@ -5370,13 +5380,13 @@
         <v>168</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J105" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="42.75">
+    <row r="106" spans="1:12" ht="43.5">
       <c r="A106" t="s">
         <v>172</v>
       </c>
@@ -5396,7 +5406,7 @@
         <v>168</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J106" t="s">
         <v>57</v>
@@ -5434,10 +5444,10 @@
         <v>57</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="57">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="58">
       <c r="A108" t="s">
         <v>174</v>
       </c>
@@ -5457,13 +5467,13 @@
         <v>168</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J108" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="57">
+    <row r="109" spans="1:12" ht="58">
       <c r="A109" t="s">
         <v>175</v>
       </c>
@@ -5483,7 +5493,7 @@
         <v>176</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J109" t="s">
         <v>57</v>
@@ -5509,7 +5519,7 @@
         <v>176</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J110" t="s">
         <v>11</v>
@@ -5539,10 +5549,10 @@
         <v>11</v>
       </c>
       <c r="L111" s="24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="28.5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="29">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -5574,10 +5584,10 @@
         <v>57</v>
       </c>
       <c r="L112" s="24" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="28.5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="43.5">
       <c r="A113" t="s">
         <v>180</v>
       </c>
@@ -5597,7 +5607,7 @@
         <v>176</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H113" t="s">
         <v>22</v>
@@ -5609,10 +5619,10 @@
         <v>57</v>
       </c>
       <c r="L113" s="24" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="42.75">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="43.5">
       <c r="A114" t="s">
         <v>181</v>
       </c>
@@ -5632,13 +5642,13 @@
         <v>182</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J114" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="42.75">
+    <row r="115" spans="1:12" ht="43.5">
       <c r="A115" t="s">
         <v>183</v>
       </c>
@@ -5663,17 +5673,17 @@
       <c r="H115" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I115" s="6">
-        <v>43953</v>
+      <c r="I115" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="J115" t="s">
         <v>57</v>
       </c>
       <c r="L115" s="24" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="42.75">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="43.5">
       <c r="A116" t="s">
         <v>184</v>
       </c>
@@ -5693,7 +5703,7 @@
         <v>182</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H116" t="s">
         <v>31</v>
@@ -5702,7 +5712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="28.5">
+    <row r="117" spans="1:12" ht="29">
       <c r="A117" t="s">
         <v>185</v>
       </c>
@@ -5722,13 +5732,13 @@
         <v>182</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J117" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="42.75">
+    <row r="118" spans="1:12" ht="58">
       <c r="A118" t="s">
         <v>186</v>
       </c>
@@ -5748,7 +5758,7 @@
         <v>182</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H118" t="s">
         <v>29</v>
@@ -5760,7 +5770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28.5">
+    <row r="119" spans="1:12" ht="29">
       <c r="A119" t="s">
         <v>187</v>
       </c>
@@ -5780,13 +5790,13 @@
         <v>182</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J119" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28.5">
+    <row r="120" spans="1:12" ht="29">
       <c r="A120" t="s">
         <v>188</v>
       </c>
@@ -5806,7 +5816,7 @@
         <v>44106</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H120" t="s">
         <v>36</v>
@@ -5818,10 +5828,10 @@
         <v>57</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="42.75">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="43.5">
       <c r="A121" t="s">
         <v>189</v>
       </c>
@@ -5847,7 +5857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="28.5">
+    <row r="122" spans="1:12" ht="29">
       <c r="A122" t="s">
         <v>191</v>
       </c>
@@ -5876,7 +5886,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="57">
+    <row r="123" spans="1:12" ht="58">
       <c r="A123" t="s">
         <v>193</v>
       </c>
@@ -5908,10 +5918,10 @@
         <v>57</v>
       </c>
       <c r="L123" s="24" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="42.75">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="43.5">
       <c r="A124" t="s">
         <v>194</v>
       </c>
@@ -5938,7 +5948,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="42.75">
+    <row r="125" spans="1:12" ht="43.5">
       <c r="A125" t="s">
         <v>196</v>
       </c>
@@ -5973,7 +5983,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="28.5">
+    <row r="126" spans="1:12" ht="29">
       <c r="A126" t="s">
         <v>236</v>
       </c>
@@ -6000,7 +6010,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="28.5">
+    <row r="127" spans="1:12" ht="29">
       <c r="A127" t="s">
         <v>278</v>
       </c>
@@ -6017,23 +6027,23 @@
         <v>78</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H127" s="10"/>
       <c r="I127" s="10" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="J127" s="10" t="s">
         <v>359</v>
       </c>
       <c r="L127" s="24" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="57">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="58">
       <c r="A128" t="s">
         <v>279</v>
       </c>
@@ -6063,10 +6073,10 @@
         <v>57</v>
       </c>
       <c r="L128" s="24" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="42.75">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="43.5">
       <c r="A129" t="s">
         <v>280</v>
       </c>
@@ -6086,7 +6096,7 @@
         <v>291</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H129" s="31" t="s">
         <v>10</v>
@@ -6098,10 +6108,10 @@
         <v>57</v>
       </c>
       <c r="L129" s="24" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="42.75">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="43.5">
       <c r="A130" t="s">
         <v>286</v>
       </c>
@@ -6131,10 +6141,10 @@
         <v>57</v>
       </c>
       <c r="L130" s="24" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="42.75">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="43.5">
       <c r="A131" t="s">
         <v>287</v>
       </c>
@@ -6164,10 +6174,10 @@
         <v>57</v>
       </c>
       <c r="L131" s="24" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="28.5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="29">
       <c r="A132" t="s">
         <v>288</v>
       </c>
@@ -6199,10 +6209,10 @@
         <v>57</v>
       </c>
       <c r="L132" s="24" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="71.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="72.5">
       <c r="A133" t="s">
         <v>308</v>
       </c>
@@ -6231,10 +6241,10 @@
         <v>57</v>
       </c>
       <c r="L133" s="24" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="57">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="58">
       <c r="A134" t="s">
         <v>311</v>
       </c>
@@ -6263,10 +6273,10 @@
         <v>57</v>
       </c>
       <c r="L134" s="24" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="57">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="58">
       <c r="A135" t="s">
         <v>314</v>
       </c>
@@ -6295,10 +6305,10 @@
         <v>318</v>
       </c>
       <c r="L135" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="71.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="72.5">
       <c r="A136" t="s">
         <v>319</v>
       </c>
@@ -6327,7 +6337,7 @@
         <v>318</v>
       </c>
       <c r="L136" s="24" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -6345,11 +6355,11 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.265625" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/data/Tianjin 135 cases_revised.xlsx
+++ b/data/Tianjin 135 cases_revised.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E461F6D-E616-4E76-A297-28DDBA86E4BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB201C1-4B34-4667-9D17-26331E4E13BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2027,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A68" activeCellId="1" sqref="A127:XFD127 A68:XFD68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2959,10 +2959,10 @@
         <v>255</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="J28" t="s">
         <v>57</v>
@@ -2994,7 +2994,7 @@
         <v>257</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s">
         <v>57</v>
@@ -4212,7 +4212,7 @@
         <v>9</v>
       </c>
       <c r="I66" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="J66" t="s">
         <v>57</v>
